--- a/dataset_v1/task_sheet_answers/IncomeStatement2/3_IncomeStatement2/3_IncomeStatement2_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/IncomeStatement2/3_IncomeStatement2/3_IncomeStatement2_gt1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="\$#,##0.00;\-\$#,##0.00"/>
+    <numFmt formatCode="\$#,##0.00;\-\$#,##0.00" numFmtId="164"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -91,34 +91,34 @@
     </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 5" xfId="1"/>
     <cellStyle name="40% - Accent1 2" xfId="2"/>
     <cellStyle name="Accent1 2" xfId="3"/>
     <cellStyle name="60% - Accent1 2" xfId="4"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -499,7 +499,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="10.44140625" customWidth="1" style="2" min="2" max="2"/>
+    <col customWidth="1" max="2" min="2" style="2" width="10.44140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -596,7 +596,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -614,17 +614,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="11.109375" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="12.88671875" customWidth="1" style="2" min="3" max="3"/>
-    <col width="23.6640625" customWidth="1" style="2" min="4" max="4"/>
-    <col width="17.109375" customWidth="1" style="2" min="6" max="6"/>
-    <col width="10" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
-    <col width="13" customWidth="1" style="2" min="8" max="8"/>
-    <col width="22.6640625" customWidth="1" style="2" min="9" max="9"/>
-    <col width="10.6640625" customWidth="1" style="2" min="10" max="10"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="11.109375"/>
+    <col customWidth="1" max="3" min="3" style="2" width="12.88671875"/>
+    <col customWidth="1" max="4" min="4" style="2" width="23.6640625"/>
+    <col customWidth="1" max="6" min="6" style="2" width="17.109375"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="10"/>
+    <col customWidth="1" max="8" min="8" style="2" width="13"/>
+    <col customWidth="1" max="9" min="9" style="2" width="22.6640625"/>
+    <col customWidth="1" max="10" min="10" style="2" width="10.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="1" s="2">
       <c r="A1" s="0" t="inlineStr">
         <is>
           <t>Year</t>
@@ -884,6 +884,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>